--- a/PID_406699_B.xlsx
+++ b/PID_406699_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\skan.local\Data\Home\marten1\Desktop\PADAGIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3476F460-54ED-4B72-A390-D3D7B23634B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54A2940-52FB-4EFA-881E-C379CF487B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PID" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PID">PID!$A$1:$C$315</definedName>
+    <definedName name="PID">PID!$A$1:$C$321</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="45">
   <si>
     <t>ShapeKey</t>
   </si>
@@ -170,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -201,17 +201,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,10 +228,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E581FA99-7794-42AC-8C45-327BE9716AB9}" name="Table1" displayName="Table1" ref="A1:C315" totalsRowShown="0">
-  <autoFilter ref="A1:C315" xr:uid="{E581FA99-7794-42AC-8C45-327BE9716AB9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C315">
-    <sortCondition ref="C1:C315"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E581FA99-7794-42AC-8C45-327BE9716AB9}" name="Table1" displayName="Table1" ref="A1:C321" totalsRowShown="0">
+  <autoFilter ref="A1:C321" xr:uid="{E581FA99-7794-42AC-8C45-327BE9716AB9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C321">
+    <sortCondition ref="C1:C321"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9814F6F7-725F-4BBC-BACF-5CD5A0C444F8}" name="ShapeKey"/>
@@ -504,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C315"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="F314" sqref="F314"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,13 +1740,13 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>19170</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
         <v>1.41</v>
       </c>
     </row>
@@ -2290,32 +2291,32 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1771</v>
+        <v>16170</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C162" s="1">
-        <v>1.706</v>
+        <v>1.7050000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>16173</v>
+        <v>1771</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C163" s="1">
-        <v>1.7070000000000001</v>
+        <v>1.706</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>4173</v>
+        <v>16173</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164" s="1">
         <v>1.7070000000000001</v>
@@ -2323,43 +2324,43 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>16174</v>
+        <v>4173</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C165" s="1">
-        <v>1.708</v>
+        <v>1.7070000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1765</v>
+        <v>16174</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C166" s="1">
-        <v>1.7090000000000001</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>16168</v>
+        <v>1765</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C167" s="1">
-        <v>1.71</v>
+        <v>1.7090000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>10129</v>
+        <v>16168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C168" s="1">
         <v>1.71</v>
@@ -2367,10 +2368,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>10130</v>
+        <v>10129</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C169" s="1">
         <v>1.71</v>
@@ -2378,87 +2379,87 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>4150</v>
+        <v>10130</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1">
-        <v>1.716</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>16176</v>
+        <v>16167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C171" s="1">
-        <v>1.7170000000000001</v>
+        <v>1.7150000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4155</v>
+        <v>4150</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C172" s="1">
-        <v>1.7170000000000001</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>16175</v>
+        <v>16176</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C173" s="1">
-        <v>1.718</v>
+        <v>1.7170000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>3784</v>
+        <v>4155</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" s="1">
-        <v>1.7190000000000001</v>
+        <v>1.7170000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>18372</v>
+        <v>16175</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C175" s="1">
-        <v>1.72</v>
+        <v>1.718</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>18373</v>
+        <v>3784</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C176" s="1">
-        <v>1.72</v>
+        <v>1.7190000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>18374</v>
+        <v>18372</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" s="1">
         <v>1.72</v>
@@ -2466,98 +2467,98 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>18393</v>
+        <v>18373</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C178" s="1">
-        <v>1.7250000000000001</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>17693</v>
+        <v>18374</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" s="1">
-        <v>1.726</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>17697</v>
+        <v>18393</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C180" s="1">
-        <v>1.7270000000000001</v>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>17698</v>
+        <v>17693</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="1">
-        <v>1.7270000000000001</v>
+        <v>1.726</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>17696</v>
+        <v>17697</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C182" s="1">
-        <v>1.728</v>
+        <v>1.7270000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>17686</v>
+        <v>17698</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" s="1">
-        <v>1.7290000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>16551</v>
+        <v>17696</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C184" s="1">
-        <v>1.73</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>16562</v>
+        <v>17686</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C185" s="1">
-        <v>1.73</v>
+        <v>1.7290000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>16564</v>
+        <v>16551</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C186" s="1">
         <v>1.73</v>
@@ -2565,1420 +2566,1486 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>17723</v>
+        <v>16562</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C187" s="1">
-        <v>1.736</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>17727</v>
+        <v>16564</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1">
-        <v>1.7370000000000001</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>17728</v>
+        <v>16549</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C189" s="1">
-        <v>1.7370000000000001</v>
+        <v>1.7350000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>17726</v>
+        <v>17723</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C190" s="1">
-        <v>1.738</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>17716</v>
+        <v>17727</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C191" s="1">
-        <v>1.7390000000000001</v>
+        <v>1.7370000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>16598</v>
+        <v>17728</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C192" s="1">
-        <v>1.74</v>
+        <v>1.7370000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>16599</v>
+        <v>17726</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C193" s="1">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>16600</v>
+        <v>17716</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" s="1">
-        <v>1.74</v>
+        <v>1.7390000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>17753</v>
+        <v>16598</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C195" s="1">
-        <v>1.746</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>17757</v>
+        <v>16599</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C196" s="1">
-        <v>1.7470000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>17758</v>
+        <v>16600</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" s="1">
-        <v>1.7470000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>17756</v>
+        <v>16585</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C198" s="1">
-        <v>1.748</v>
+        <v>1.7450000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>17746</v>
+        <v>17753</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" s="1">
-        <v>1.7490000000000001</v>
+        <v>1.746</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>16508</v>
+        <v>17757</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C200" s="1">
-        <v>1.75</v>
+        <v>1.7470000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>16509</v>
+        <v>17758</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C201" s="1">
-        <v>1.75</v>
+        <v>1.7470000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>16510</v>
+        <v>17756</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C202" s="1">
-        <v>1.75</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>18412</v>
+        <v>17746</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" s="1">
-        <v>1.756</v>
+        <v>1.7490000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>18416</v>
+        <v>16508</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C204" s="1">
-        <v>1.7569999999999999</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>18417</v>
+        <v>16509</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C205" s="1">
-        <v>1.7569999999999999</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>18415</v>
+        <v>16510</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C206" s="1">
-        <v>1.758</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>18405</v>
+        <v>16529</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C207" s="1">
-        <v>1.7589999999999999</v>
+        <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>18690</v>
+        <v>18412</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C208" s="1">
-        <v>1.8</v>
+        <v>1.756</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>18691</v>
+        <v>18416</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C209" s="1">
-        <v>1.81</v>
+        <v>1.7569999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>18734</v>
+        <v>18417</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C210" s="1">
-        <v>1.81</v>
+        <v>1.7569999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>16171</v>
+        <v>18415</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C211" s="1">
-        <v>1.8149999999999999</v>
+        <v>1.758</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>16457</v>
+        <v>18405</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C212" s="1">
-        <v>1.8160000000000001</v>
+        <v>1.7589999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>18692</v>
+        <v>18690</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C213" s="1">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>18733</v>
+        <v>18691</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C214" s="1">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1773</v>
+        <v>18734</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C215" s="1">
-        <v>1.825</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>16178</v>
+        <v>16171</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C216" s="1">
-        <v>1.825</v>
+        <v>1.8149999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>16179</v>
+        <v>16457</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C217" s="1">
-        <v>1.825</v>
+        <v>1.8160000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>16208</v>
+        <v>18692</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C218" s="1">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>16210</v>
+        <v>18733</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C219" s="1">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1613</v>
+        <v>1773</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C220" s="1">
-        <v>1.83</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1614</v>
+        <v>16178</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C221" s="1">
-        <v>1.83</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>16211</v>
+        <v>16179</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C222" s="1">
-        <v>1.831</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>16212</v>
+        <v>16208</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C223" s="1">
-        <v>1.831</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1607</v>
+        <v>16210</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C224" s="1">
-        <v>1.831</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C225" s="1">
-        <v>1.831</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>16209</v>
+        <v>1614</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C226" s="1">
-        <v>1.8320000000000001</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>18723</v>
+        <v>16211</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C227" s="1">
-        <v>1.8320000000000001</v>
+        <v>1.831</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>16189</v>
+        <v>16212</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C228" s="1">
-        <v>1.833</v>
+        <v>1.831</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>16188</v>
+        <v>1607</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C229" s="1">
-        <v>1.8340000000000001</v>
+        <v>1.831</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>19014</v>
+        <v>1608</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C230" s="1">
-        <v>1.84</v>
+        <v>1.831</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>16207</v>
+        <v>16209</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C231" s="1">
-        <v>1.8420000000000001</v>
+        <v>1.8320000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1763</v>
+        <v>18723</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C232" s="1">
-        <v>1.85</v>
+        <v>1.8320000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1764</v>
+        <v>16189</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C233" s="1">
-        <v>1.851</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1762</v>
+        <v>16188</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C234" s="1">
-        <v>1.8520000000000001</v>
+        <v>1.8340000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1776</v>
+      <c r="A235" s="2">
+        <v>38799</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="1">
-        <v>1.853</v>
+        <v>8</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1.8360000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>16172</v>
+        <v>19014</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C236" s="1">
-        <v>1.853</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1769</v>
+        <v>16207</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" s="1">
-        <v>1.855</v>
+        <v>1.8420000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>16180</v>
+        <v>1763</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C238" s="1">
-        <v>1.855</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>4579</v>
+        <v>1764</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C239" s="1">
-        <v>1.857</v>
+        <v>1.851</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C240" s="1">
-        <v>1.86</v>
+        <v>1.8520000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1772</v>
+        <v>1776</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C241" s="1">
-        <v>1.861</v>
+        <v>1.853</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3772</v>
+        <v>16172</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C242" s="1">
-        <v>1.863</v>
+        <v>1.853</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C243" s="1">
-        <v>1.865</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>16181</v>
+        <v>16180</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C244" s="1">
-        <v>1.865</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1767</v>
+        <v>4579</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C245" s="1">
-        <v>1.8660000000000001</v>
+        <v>1.857</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>16182</v>
+        <v>1774</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C246" s="1">
-        <v>1.8660000000000001</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>18492</v>
+        <v>1772</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C247" s="1">
-        <v>1.867</v>
+        <v>1.861</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>18493</v>
+        <v>3772</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C248" s="1">
-        <v>1.867</v>
+        <v>1.863</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C249" s="1">
-        <v>1.8680000000000001</v>
+        <v>1.865</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>16183</v>
+        <v>16181</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C250" s="1">
-        <v>1.8680000000000001</v>
+        <v>1.865</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>18478</v>
+        <v>1767</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C251" s="1">
-        <v>1.869</v>
+        <v>1.8660000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>18479</v>
+        <v>16182</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C252" s="1">
-        <v>1.869</v>
+        <v>1.8660000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>35028</v>
+        <v>18492</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C253" s="1">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>35029</v>
+        <v>18493</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C254" s="1">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>17020</v>
+        <v>1766</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C255" s="1">
-        <v>1.901</v>
+        <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>16260</v>
+        <v>16183</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C256" s="1">
-        <v>1.9019999999999999</v>
+        <v>1.8680000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>16895</v>
+        <v>18478</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C257" s="1">
-        <v>1.903</v>
+        <v>1.869</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>17241</v>
+        <v>18479</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C258" s="1">
-        <v>1.9039999999999999</v>
+        <v>1.869</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>17430</v>
+        <v>35028</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C259" s="1">
-        <v>1.905</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>17580</v>
+        <v>35029</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C260" s="1">
-        <v>1.9059999999999999</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>19222</v>
+        <v>17020</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C261" s="1">
-        <v>1.911</v>
+        <v>1.901</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>17068</v>
+        <v>16260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C262" s="1">
-        <v>1.9119999999999999</v>
+        <v>1.9019999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>17077</v>
+        <v>16895</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C263" s="1">
-        <v>1.913</v>
+        <v>1.903</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>19213</v>
+        <v>17241</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C264" s="1">
-        <v>1.9139999999999999</v>
+        <v>1.9039999999999999</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>35011</v>
+        <v>17430</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C265" s="1">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>17637</v>
+        <v>17580</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C266" s="1">
-        <v>1.9159999999999999</v>
+        <v>1.9059999999999999</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>17647</v>
+        <v>19222</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C267" s="1">
-        <v>1.917</v>
+        <v>1.911</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>17656</v>
+        <v>17068</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C268" s="1">
-        <v>1.9179999999999999</v>
+        <v>1.9119999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>17665</v>
+        <v>17077</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C269" s="1">
-        <v>1.919</v>
+        <v>1.913</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>16869</v>
+        <v>19213</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C270" s="1">
-        <v>1.921</v>
+        <v>1.9139999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>19185</v>
+        <v>35011</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C271" s="1">
-        <v>1.9219999999999999</v>
+        <v>1.915</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>16224</v>
+        <v>17637</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C272" s="1">
-        <v>1.923</v>
+        <v>1.9159999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>35001</v>
+        <v>17647</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C273" s="1">
-        <v>1.9239999999999999</v>
+        <v>1.917</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>34904</v>
+        <v>17656</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C274" s="1">
-        <v>1.931</v>
+        <v>1.9179999999999999</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>18208</v>
+        <v>17665</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C275" s="1">
-        <v>1.9319999999999999</v>
+        <v>1.919</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>35069</v>
+        <v>16869</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C276" s="1">
-        <v>1.9330000000000001</v>
+        <v>1.921</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>17042</v>
+        <v>19185</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C277" s="1">
-        <v>1.9410000000000001</v>
+        <v>1.9219999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>16922</v>
+        <v>16224</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C278" s="1">
-        <v>1.9419999999999999</v>
+        <v>1.923</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>16898</v>
+        <v>35001</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C279" s="1">
-        <v>1.9430000000000001</v>
+        <v>1.9239999999999999</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>17228</v>
+        <v>34904</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C280" s="1">
-        <v>1.944</v>
+        <v>1.931</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>17483</v>
+      <c r="A281" s="2">
+        <v>18208</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C281" s="1">
-        <v>1.9450000000000001</v>
+      <c r="C281" s="3">
+        <v>1.9319999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>17567</v>
+      <c r="A282" s="2">
+        <v>35069</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C282" s="1">
-        <v>1.946</v>
+      <c r="C282" s="3">
+        <v>1.9330000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>16242</v>
+        <v>17042</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C283" s="1">
-        <v>1.9610000000000001</v>
+        <v>1.9410000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>17919</v>
+        <v>16922</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="1">
-        <v>1.962</v>
+        <v>1.9419999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>17926</v>
+        <v>16898</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C285" s="1">
-        <v>1.9630000000000001</v>
+        <v>1.9430000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>3972</v>
+        <v>17228</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C286" s="1">
-        <v>1.99</v>
+        <v>1.944</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>4551</v>
+        <v>17483</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C287" s="1">
-        <v>1.9910000000000001</v>
+        <v>1.9450000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>15769</v>
+        <v>17567</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C288" s="1">
-        <v>2.101</v>
+        <v>1.946</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>15763</v>
+        <v>16242</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C289" s="1">
-        <v>2.1019999999999999</v>
+        <v>1.9610000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>15949</v>
+        <v>17919</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C290" s="1">
-        <v>2.1030000000000002</v>
+        <v>1.962</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>15943</v>
+        <v>17926</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C291" s="1">
-        <v>2.1040000000000001</v>
+        <v>1.9630000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>35056</v>
+        <v>3972</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C292" s="1">
-        <v>2.105</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>35062</v>
+        <v>4551</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C293" s="1">
-        <v>2.1059999999999999</v>
+        <v>1.9910000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>16264</v>
+        <v>15769</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C294" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.101</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>16263</v>
+        <v>15763</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C295" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1019999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>15603</v>
+        <v>15949</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C296" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1030000000000002</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>15604</v>
+        <v>15943</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C297" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.1040000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>15622</v>
+      <c r="A298" s="2">
+        <v>35056</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C298" s="1">
-        <v>2.2010000000000001</v>
+      <c r="C298" s="3">
+        <v>2.105</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>16265</v>
+      <c r="A299" s="2">
+        <v>35062</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C299" s="1">
-        <v>2.2080000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="C299" s="3">
+        <v>2.1059999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>16267</v>
+        <v>16264</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C300" s="1">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>16268</v>
+        <v>16263</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C301" s="1">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>15720</v>
+        <v>15603</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C302" s="1">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>15721</v>
+        <v>15604</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C303" s="1">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>15739</v>
+        <v>15622</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C304" s="1">
-        <v>2.2109999999999999</v>
+        <v>2.2010000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>16266</v>
+        <v>16265</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C305" s="1">
-        <v>2.218</v>
+        <v>2.2080000000000002</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>18187</v>
+        <v>16267</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C306" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>18188</v>
+        <v>16268</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C307" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>18189</v>
+        <v>15720</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C308" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>18190</v>
+        <v>15721</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C309" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>18102</v>
+        <v>15739</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C310" s="1">
-        <v>2.3039999999999998</v>
+        <v>2.2109999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>18103</v>
+        <v>16266</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C311" s="1">
-        <v>2.3039999999999998</v>
+        <v>2.218</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>18101</v>
+        <v>18187</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C312" s="1">
-        <v>2.3079999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>18191</v>
+        <v>18188</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C313" s="1">
-        <v>2.35</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>18192</v>
+        <v>18189</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C314" s="1">
-        <v>2.35</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
+        <v>18190</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>18102</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C316" s="1">
+        <v>2.3039999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>18103</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2.3039999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>18101</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2.3079999999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>18191</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C319" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>18192</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C320" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>15757</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B321" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C321" s="1">
         <v>2.99</v>
       </c>
     </row>
